--- a/data/respirometry/middle/final_rates/50_rates.xlsx
+++ b/data/respirometry/middle/final_rates/50_rates.xlsx
@@ -578,24 +578,24 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1426048780487805</v>
       </c>
       <c r="V2">
-        <v>0.0025</v>
+        <v>0.0002220611491829204</v>
       </c>
       <c r="Z2">
-        <v>-0.1445410046611957</v>
+        <v>-0.1334644673838256</v>
       </c>
       <c r="AB2">
-        <v>-0.005781640186447826</v>
+        <v>-601.0257439219397</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD2">
-        <v>-0.005781640186447826</v>
+        <v>-601.0257439219397</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -665,24 +665,24 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.1423414634146342</v>
       </c>
       <c r="V3">
-        <v>0.0025</v>
+        <v>0.0002565454225970831</v>
       </c>
       <c r="Z3">
-        <v>-0.192053358874393</v>
+        <v>-0.1770082631175668</v>
       </c>
       <c r="AB3">
-        <v>-0.00768213435497572</v>
+        <v>-689.9685105493649</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD3">
-        <v>-0.00768213435497572</v>
+        <v>-689.9685105493649</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -752,24 +752,24 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1477268292682927</v>
       </c>
       <c r="V4">
-        <v>0.0025</v>
+        <v>0.0002491214197856265</v>
       </c>
       <c r="Z4">
-        <v>-0.1459116488797095</v>
+        <v>-0.1395691870131308</v>
       </c>
       <c r="AB4">
-        <v>-0.005836465955188381</v>
+        <v>-560.2456309587212</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD4">
-        <v>-0.005836465955188381</v>
+        <v>-560.2456309587212</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -839,24 +839,24 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1470341463414634</v>
       </c>
       <c r="V5">
-        <v>0.0025</v>
+        <v>0.0002082674398172554</v>
       </c>
       <c r="Z5">
-        <v>-0.168541879359232</v>
+        <v>-0.1604597989793485</v>
       </c>
       <c r="AB5">
-        <v>-0.006741675174369278</v>
+        <v>-770.4507200940495</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD5">
-        <v>-0.006741675174369278</v>
+        <v>-770.4507200940495</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -926,24 +926,24 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1477560975609756</v>
       </c>
       <c r="V6">
-        <v>0.0025</v>
+        <v>0.0001607142857142857</v>
       </c>
       <c r="Z6">
-        <v>-0.1429951621098139</v>
+        <v>-0.1368065729308805</v>
       </c>
       <c r="AB6">
-        <v>-0.005719806484392555</v>
+        <v>-851.2408982365895</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD6">
-        <v>-0.005719806484392555</v>
+        <v>-851.2408982365895</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1013,24 +1013,24 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1455317073170732</v>
       </c>
       <c r="V7">
-        <v>0.0025</v>
+        <v>0.0002247627833421192</v>
       </c>
       <c r="Z7">
-        <v>-0.1502102742292288</v>
+        <v>-0.1415459574277741</v>
       </c>
       <c r="AB7">
-        <v>-0.006008410969169153</v>
+        <v>-629.7570946713279</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD7">
-        <v>-0.006008410969169153</v>
+        <v>-629.7570946713279</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1100,24 +1100,18 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V8">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD8">
-        <v>0</v>
+          <t>umolO2/min/m2</t>
+        </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1187,24 +1181,24 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1426048780487805</v>
       </c>
       <c r="V9">
-        <v>0.0025</v>
+        <v>0.0002220611491829204</v>
       </c>
       <c r="Z9">
-        <v>1.533533903082498</v>
+        <v>1.416015379647436</v>
       </c>
       <c r="AB9">
-        <v>0.06134135612329993</v>
+        <v>6376.691217071065</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD9">
-        <v>0.06134135612329993</v>
+        <v>6376.691217071065</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1274,24 +1268,24 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1423414634146342</v>
       </c>
       <c r="V10">
-        <v>0.0025</v>
+        <v>0.0002565454225970831</v>
       </c>
       <c r="Z10">
-        <v>-0.07816603768733248</v>
+        <v>-0.07204265859711442</v>
       </c>
       <c r="AB10">
-        <v>-0.003126641507493299</v>
+        <v>-280.8183356686151</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD10">
-        <v>-0.003126641507493299</v>
+        <v>-280.8183356686151</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1361,24 +1355,24 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.1477268292682927</v>
       </c>
       <c r="V11">
-        <v>0.0025</v>
+        <v>0.0002491214197856265</v>
       </c>
       <c r="Z11">
-        <v>0.03456140531184683</v>
+        <v>0.03305909623009233</v>
       </c>
       <c r="AB11">
-        <v>0.001382456212473873</v>
+        <v>132.7027449447754</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD11">
-        <v>0.001382456212473873</v>
+        <v>132.7027449447754</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1448,24 +1442,24 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1470341463414634</v>
       </c>
       <c r="V12">
-        <v>0.0025</v>
+        <v>0.0002082674398172554</v>
       </c>
       <c r="Z12">
-        <v>0.05611102028806153</v>
+        <v>0.05342033131574503</v>
       </c>
       <c r="AB12">
-        <v>0.002244440811522461</v>
+        <v>256.4987180070913</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD12">
-        <v>0.002244440811522461</v>
+        <v>256.4987180070913</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1535,24 +1529,24 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1477560975609756</v>
       </c>
       <c r="V13">
-        <v>0.0025</v>
+        <v>0.0001607142857142857</v>
       </c>
       <c r="Z13">
-        <v>0.03218005683376601</v>
+        <v>0.03078735830774197</v>
       </c>
       <c r="AB13">
-        <v>0.00128720227335064</v>
+        <v>191.56578502595</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD13">
-        <v>0.00128720227335064</v>
+        <v>191.56578502595</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1622,24 +1616,24 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1455317073170732</v>
       </c>
       <c r="V14">
-        <v>0.0025</v>
+        <v>0.0002247627833421192</v>
       </c>
       <c r="Z14">
-        <v>-0.07428481969499803</v>
+        <v>-0.06999997823073044</v>
       </c>
       <c r="AB14">
-        <v>-0.002971392787799921</v>
+        <v>-311.4393637143257</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD14">
-        <v>-0.002971392787799921</v>
+        <v>-311.4393637143257</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1709,24 +1703,28 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V15">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>-0.0007277875839827516</v>
-      </c>
-      <c r="AB15">
-        <v>-2.911150335931006E-05</v>
+        <v>-0.000727599086810003</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD15">
-        <v>-2.911150335931006E-05</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
